--- a/natmiOut/OldD2/LR-pairs_lrc2p/Spp1-Itga4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Spp1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H2">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I2">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J2">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.294352522144792</v>
+        <v>0.317263</v>
       </c>
       <c r="N2">
-        <v>0.294352522144792</v>
+        <v>0.634526</v>
       </c>
       <c r="O2">
-        <v>0.002545680356091186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P2">
-        <v>0.002545680356091186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q2">
-        <v>1.077153903366722</v>
+        <v>1.9222316367165</v>
       </c>
       <c r="R2">
-        <v>1.077153903366722</v>
+        <v>7.688926546866</v>
       </c>
       <c r="S2">
-        <v>3.099570012489908E-06</v>
+        <v>3.419860597088186E-06</v>
       </c>
       <c r="T2">
-        <v>3.099570012489908E-06</v>
+        <v>1.54190096629696E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H3">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I3">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J3">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>42.976043056057</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N3">
-        <v>42.976043056057</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.3716743032917443</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P3">
-        <v>0.3716743032917443</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q3">
-        <v>157.2665733990795</v>
+        <v>0.1722293404815</v>
       </c>
       <c r="R3">
-        <v>157.2665733990795</v>
+        <v>1.033376042889</v>
       </c>
       <c r="S3">
-        <v>0.0004525432747829651</v>
+        <v>3.064148586074049E-07</v>
       </c>
       <c r="T3">
-        <v>0.0004525432747829651</v>
+        <v>2.072283444726275E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H4">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I4">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J4">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>70.4144540386251</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N4">
-        <v>70.4144540386251</v>
+        <v>148.173461</v>
       </c>
       <c r="O4">
-        <v>0.6089728435988707</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P4">
-        <v>0.6089728435988707</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q4">
-        <v>257.6747210062376</v>
+        <v>299.2508995754084</v>
       </c>
       <c r="R4">
-        <v>257.6747210062376</v>
+        <v>1795.505397452451</v>
       </c>
       <c r="S4">
-        <v>0.0007414732803838922</v>
+        <v>0.0005324001231450279</v>
       </c>
       <c r="T4">
-        <v>0.0007414732803838922</v>
+        <v>0.000360062160881453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H5">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I5">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J5">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.570626390767208</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N5">
-        <v>0.570626390767208</v>
+        <v>212.597199</v>
       </c>
       <c r="O5">
-        <v>0.004935009162003186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P5">
-        <v>0.004935009162003186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q5">
-        <v>2.088150764601279</v>
+        <v>429.3609842046015</v>
       </c>
       <c r="R5">
-        <v>2.088150764601279</v>
+        <v>2576.165905227609</v>
       </c>
       <c r="S5">
-        <v>6.008769472297452E-06</v>
+        <v>0.0007638802128532857</v>
       </c>
       <c r="T5">
-        <v>6.008769472297452E-06</v>
+        <v>0.0005166121271155588</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H6">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I6">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J6">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.3727573016189</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N6">
-        <v>1.3727573016189</v>
+        <v>1.841336</v>
       </c>
       <c r="O6">
-        <v>0.01187216359129066</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P6">
-        <v>0.01187216359129066</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q6">
-        <v>5.023469393228464</v>
+        <v>3.718759423596</v>
       </c>
       <c r="R6">
-        <v>5.023469393228464</v>
+        <v>22.312556541576</v>
       </c>
       <c r="S6">
-        <v>1.445531139166354E-05</v>
+        <v>6.616080278717206E-06</v>
       </c>
       <c r="T6">
-        <v>1.445531139166354E-05</v>
+        <v>4.474454565577106E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.190745986862</v>
+        <v>6.0587955</v>
       </c>
       <c r="H7">
-        <v>28.190745986862</v>
+        <v>12.117591</v>
       </c>
       <c r="I7">
-        <v>0.009379812336091498</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J7">
-        <v>0.009379812336091498</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.294352522144792</v>
+        <v>1.3859455</v>
       </c>
       <c r="N7">
-        <v>0.294352522144792</v>
+        <v>2.771891</v>
       </c>
       <c r="O7">
-        <v>0.002545680356091186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P7">
-        <v>0.002545680356091186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q7">
-        <v>8.298017182376004</v>
+        <v>8.39716035864525</v>
       </c>
       <c r="R7">
-        <v>8.298017182376004</v>
+        <v>33.588641434581</v>
       </c>
       <c r="S7">
-        <v>2.38780040078099E-05</v>
+        <v>1.493946790253413E-05</v>
       </c>
       <c r="T7">
-        <v>2.38780040078099E-05</v>
+        <v>6.73570730178093E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H8">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I8">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J8">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.976043056057</v>
+        <v>0.317263</v>
       </c>
       <c r="N8">
-        <v>42.976043056057</v>
+        <v>0.634526</v>
       </c>
       <c r="O8">
-        <v>0.3716743032917443</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P8">
-        <v>0.3716743032917443</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q8">
-        <v>1211.526713313747</v>
+        <v>10.08251809640067</v>
       </c>
       <c r="R8">
-        <v>1211.526713313747</v>
+        <v>60.49510857840401</v>
       </c>
       <c r="S8">
-        <v>0.003486235215024116</v>
+        <v>1.793790389185787E-05</v>
       </c>
       <c r="T8">
-        <v>0.003486235215024116</v>
+        <v>1.213140297344894E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H9">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I9">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J9">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>70.4144540386251</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N9">
-        <v>70.4144540386251</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.6089728435988707</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P9">
-        <v>0.6089728435988707</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q9">
-        <v>1985.035987606449</v>
+        <v>0.9033799095628888</v>
       </c>
       <c r="R9">
-        <v>1985.035987606449</v>
+        <v>8.130419186066</v>
       </c>
       <c r="S9">
-        <v>0.005712050990733406</v>
+        <v>1.607211793783861E-06</v>
       </c>
       <c r="T9">
-        <v>0.005712050990733406</v>
+        <v>1.630435812201157E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H10">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I10">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J10">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.570626390767208</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N10">
-        <v>0.570626390767208</v>
+        <v>148.173461</v>
       </c>
       <c r="O10">
-        <v>0.004935009162003186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P10">
-        <v>0.004935009162003186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q10">
-        <v>16.08638363551822</v>
+        <v>1569.635288849544</v>
       </c>
       <c r="R10">
-        <v>16.08638363551822</v>
+        <v>14126.71759964589</v>
       </c>
       <c r="S10">
-        <v>4.628945981648205E-05</v>
+        <v>0.002792553079245452</v>
       </c>
       <c r="T10">
-        <v>4.628945981648205E-05</v>
+        <v>0.002832905137632846</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H11">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I11">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J11">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3727573016189</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N11">
-        <v>1.3727573016189</v>
+        <v>212.597199</v>
       </c>
       <c r="O11">
-        <v>0.01187216359129066</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P11">
-        <v>0.01187216359129066</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q11">
-        <v>38.69905239154852</v>
+        <v>2252.090648412194</v>
       </c>
       <c r="R11">
-        <v>38.69905239154852</v>
+        <v>20268.81583570975</v>
       </c>
       <c r="S11">
-        <v>0.0001113586665096844</v>
+        <v>0.004006715903777184</v>
       </c>
       <c r="T11">
-        <v>0.0001113586665096844</v>
+        <v>0.004064612469931121</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2110.07010425502</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H12">
-        <v>2110.07010425502</v>
+        <v>95.339054</v>
       </c>
       <c r="I12">
-        <v>0.7020765467906734</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J12">
-        <v>0.7020765467906734</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.294352522144792</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N12">
-        <v>0.294352522144792</v>
+        <v>1.841336</v>
       </c>
       <c r="O12">
-        <v>0.002545680356091186</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P12">
-        <v>0.002545680356091186</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q12">
-        <v>621.1044570897893</v>
+        <v>19.50569248179378</v>
       </c>
       <c r="R12">
-        <v>621.1044570897893</v>
+        <v>175.551232336144</v>
       </c>
       <c r="S12">
-        <v>0.001787262473637352</v>
+        <v>3.470276311306182E-05</v>
       </c>
       <c r="T12">
-        <v>0.001787262473637352</v>
+        <v>3.520421389433777E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2110.07010425502</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H13">
-        <v>2110.07010425502</v>
+        <v>95.339054</v>
       </c>
       <c r="I13">
-        <v>0.7020765467906734</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J13">
-        <v>0.7020765467906734</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>42.976043056057</v>
+        <v>1.3859455</v>
       </c>
       <c r="N13">
-        <v>42.976043056057</v>
+        <v>2.771891</v>
       </c>
       <c r="O13">
-        <v>0.3716743032917443</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P13">
-        <v>0.3716743032917443</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q13">
-        <v>90682.46365176242</v>
+        <v>44.04491095518567</v>
       </c>
       <c r="R13">
-        <v>90682.46365176242</v>
+        <v>264.269465731114</v>
       </c>
       <c r="S13">
-        <v>0.2609438113858973</v>
+        <v>7.836072021746279E-05</v>
       </c>
       <c r="T13">
-        <v>0.2609438113858973</v>
+        <v>5.299534884224813E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H14">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I14">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J14">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>70.4144540386251</v>
+        <v>0.317263</v>
       </c>
       <c r="N14">
-        <v>70.4144540386251</v>
+        <v>0.634526</v>
       </c>
       <c r="O14">
-        <v>0.6089728435988707</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P14">
-        <v>0.6089728435988707</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q14">
-        <v>148579.434374342</v>
+        <v>1064.245346481961</v>
       </c>
       <c r="R14">
-        <v>148579.434374342</v>
+        <v>6385.472078891764</v>
       </c>
       <c r="S14">
-        <v>0.427545551123192</v>
+        <v>0.001893409023422968</v>
       </c>
       <c r="T14">
-        <v>0.427545551123192</v>
+        <v>0.00128051237174565</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H15">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I15">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J15">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.570626390767208</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N15">
-        <v>0.570626390767208</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.004935009162003186</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P15">
-        <v>0.004935009162003186</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q15">
-        <v>1204.061687856828</v>
+        <v>95.35493570805622</v>
       </c>
       <c r="R15">
-        <v>1204.061687856828</v>
+        <v>858.1944213725059</v>
       </c>
       <c r="S15">
-        <v>0.003464754190839532</v>
+        <v>0.000169646873528153</v>
       </c>
       <c r="T15">
-        <v>0.003464754190839532</v>
+        <v>0.0001720982505840536</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H16">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I16">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J16">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.3727573016189</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N16">
-        <v>1.3727573016189</v>
+        <v>148.173461</v>
       </c>
       <c r="O16">
-        <v>0.01187216359129066</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P16">
-        <v>0.01187216359129066</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q16">
-        <v>2896.614142543832</v>
+        <v>165680.5408986406</v>
       </c>
       <c r="R16">
-        <v>2896.614142543832</v>
+        <v>1491124.868087766</v>
       </c>
       <c r="S16">
-        <v>0.008335167617107304</v>
+        <v>0.2947638269503126</v>
       </c>
       <c r="T16">
-        <v>0.008335167617107304</v>
+        <v>0.299023129036275</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>769.5240429458891</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H17">
-        <v>769.5240429458891</v>
+        <v>10063.373414</v>
       </c>
       <c r="I17">
-        <v>0.2560411531609246</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J17">
-        <v>0.2560411531609246</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.294352522144792</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N17">
-        <v>0.294352522144792</v>
+        <v>212.597199</v>
       </c>
       <c r="O17">
-        <v>0.002545680356091186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P17">
-        <v>0.002545680356091186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q17">
-        <v>226.5113428921797</v>
+        <v>237716.1111452742</v>
       </c>
       <c r="R17">
-        <v>226.5113428921797</v>
+        <v>2139445.000307467</v>
       </c>
       <c r="S17">
-        <v>0.0006517989339527003</v>
+        <v>0.4229229954759388</v>
       </c>
       <c r="T17">
-        <v>0.0006517989339527003</v>
+        <v>0.4290341822367749</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>769.5240429458891</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H18">
-        <v>769.5240429458891</v>
+        <v>10063.373414</v>
       </c>
       <c r="I18">
-        <v>0.2560411531609246</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J18">
-        <v>0.2560411531609246</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.976043056057</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N18">
-        <v>42.976043056057</v>
+        <v>1.841336</v>
       </c>
       <c r="O18">
-        <v>0.3716743032917443</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P18">
-        <v>0.3716743032917443</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q18">
-        <v>33071.09840231358</v>
+        <v>2058.894638737901</v>
       </c>
       <c r="R18">
-        <v>33071.09840231358</v>
+        <v>18530.0517486411</v>
       </c>
       <c r="S18">
-        <v>0.09516391721510144</v>
+        <v>0.003662999044487332</v>
       </c>
       <c r="T18">
-        <v>0.09516391721510144</v>
+        <v>0.003715928943086094</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>769.5240429458891</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H19">
-        <v>769.5240429458891</v>
+        <v>10063.373414</v>
       </c>
       <c r="I19">
-        <v>0.2560411531609246</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J19">
-        <v>0.2560411531609246</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.4144540386251</v>
+        <v>1.3859455</v>
       </c>
       <c r="N19">
-        <v>70.4144540386251</v>
+        <v>2.771891</v>
       </c>
       <c r="O19">
-        <v>0.6089728435988707</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P19">
-        <v>0.6089728435988707</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q19">
-        <v>54185.61535363027</v>
+        <v>4649.095699317646</v>
       </c>
       <c r="R19">
-        <v>54185.61535363027</v>
+        <v>27894.57419590588</v>
       </c>
       <c r="S19">
-        <v>0.1559221091187422</v>
+        <v>0.008271250400054391</v>
       </c>
       <c r="T19">
-        <v>0.1559221091187422</v>
+        <v>0.005593845986816017</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H20">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I20">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J20">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.570626390767208</v>
+        <v>0.317263</v>
       </c>
       <c r="N20">
-        <v>0.570626390767208</v>
+        <v>0.634526</v>
       </c>
       <c r="O20">
-        <v>0.004935009162003186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P20">
-        <v>0.004935009162003186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q20">
-        <v>439.1107272348027</v>
+        <v>335.094998199727</v>
       </c>
       <c r="R20">
-        <v>439.1107272348027</v>
+        <v>2010.569989198362</v>
       </c>
       <c r="S20">
-        <v>0.001263565436699024</v>
+        <v>0.00059617070010465</v>
       </c>
       <c r="T20">
-        <v>0.001263565436699024</v>
+        <v>0.0004031901970004149</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H21">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I21">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J21">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.3727573016189</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N21">
-        <v>1.3727573016189</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.01187216359129066</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P21">
-        <v>0.01187216359129066</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q21">
-        <v>1056.369748725265</v>
+        <v>30.02405612113033</v>
       </c>
       <c r="R21">
-        <v>1056.369748725265</v>
+        <v>270.216505090173</v>
       </c>
       <c r="S21">
-        <v>0.003039762456429204</v>
+        <v>5.34160839579197E-05</v>
       </c>
       <c r="T21">
-        <v>0.003039762456429204</v>
+        <v>5.418793998984814E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.058651479175509</v>
+        <v>1056.205729</v>
       </c>
       <c r="H22">
-        <v>8.058651479175509</v>
+        <v>3168.617187</v>
       </c>
       <c r="I22">
-        <v>0.002681328070986831</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J22">
-        <v>0.002681328070986831</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.294352522144792</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N22">
-        <v>0.294352522144792</v>
+        <v>148.173461</v>
       </c>
       <c r="O22">
-        <v>0.002545680356091186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P22">
-        <v>0.002545680356091186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q22">
-        <v>2.37208438798117</v>
+        <v>52167.21946465268</v>
       </c>
       <c r="R22">
-        <v>2.37208438798117</v>
+        <v>469504.9751818741</v>
       </c>
       <c r="S22">
-        <v>6.825804198547048E-06</v>
+        <v>0.09281119657959802</v>
       </c>
       <c r="T22">
-        <v>6.825804198547048E-06</v>
+        <v>0.0941523072826382</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.058651479175509</v>
+        <v>1056.205729</v>
       </c>
       <c r="H23">
-        <v>8.058651479175509</v>
+        <v>3168.617187</v>
       </c>
       <c r="I23">
-        <v>0.002681328070986831</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J23">
-        <v>0.002681328070986831</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>42.976043056057</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N23">
-        <v>42.976043056057</v>
+        <v>212.597199</v>
       </c>
       <c r="O23">
-        <v>0.3716743032917443</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P23">
-        <v>0.3716743032917443</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q23">
-        <v>346.3289529428041</v>
+        <v>74848.79318438437</v>
       </c>
       <c r="R23">
-        <v>346.3289529428041</v>
+        <v>673639.1386594592</v>
       </c>
       <c r="S23">
-        <v>0.000996580742680627</v>
+        <v>0.1331642002251734</v>
       </c>
       <c r="T23">
-        <v>0.000996580742680627</v>
+        <v>0.1350884070101878</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.058651479175509</v>
+        <v>1056.205729</v>
       </c>
       <c r="H24">
-        <v>8.058651479175509</v>
+        <v>3168.617187</v>
       </c>
       <c r="I24">
-        <v>0.002681328070986831</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J24">
-        <v>0.002681328070986831</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>70.4144540386251</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N24">
-        <v>70.4144540386251</v>
+        <v>1.841336</v>
       </c>
       <c r="O24">
-        <v>0.6089728435988707</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P24">
-        <v>0.6089728435988707</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q24">
-        <v>567.4455441937021</v>
+        <v>648.2765440713147</v>
       </c>
       <c r="R24">
-        <v>567.4455441937021</v>
+        <v>5834.488896641832</v>
       </c>
       <c r="S24">
-        <v>0.001632855980010325</v>
+        <v>0.001153354968641049</v>
       </c>
       <c r="T24">
-        <v>0.001632855980010325</v>
+        <v>0.001170020810154282</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.058651479175509</v>
+        <v>1056.205729</v>
       </c>
       <c r="H25">
-        <v>8.058651479175509</v>
+        <v>3168.617187</v>
       </c>
       <c r="I25">
-        <v>0.002681328070986831</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J25">
-        <v>0.002681328070986831</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.570626390767208</v>
+        <v>1.3859455</v>
       </c>
       <c r="N25">
-        <v>0.570626390767208</v>
+        <v>2.771891</v>
       </c>
       <c r="O25">
-        <v>0.004935009162003186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P25">
-        <v>0.004935009162003186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q25">
-        <v>4.598479208012743</v>
+        <v>1463.84357718177</v>
       </c>
       <c r="R25">
-        <v>4.598479208012743</v>
+        <v>8783.061463090617</v>
       </c>
       <c r="S25">
-        <v>1.323237859665634E-05</v>
+        <v>0.00260433803828965</v>
       </c>
       <c r="T25">
-        <v>1.323237859665634E-05</v>
+        <v>0.001761313607880019</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H26">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I26">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J26">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.3727573016189</v>
+        <v>0.317263</v>
       </c>
       <c r="N26">
-        <v>1.3727573016189</v>
+        <v>0.634526</v>
       </c>
       <c r="O26">
-        <v>0.01187216359129066</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P26">
-        <v>0.01187216359129066</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q26">
-        <v>11.06257265924013</v>
+        <v>2.948477979766</v>
       </c>
       <c r="R26">
-        <v>11.06257265924013</v>
+        <v>17.690867878596</v>
       </c>
       <c r="S26">
-        <v>3.183316550067546E-05</v>
+        <v>5.24566523190101E-06</v>
       </c>
       <c r="T26">
-        <v>3.183316550067546E-05</v>
+        <v>3.547642978558215E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>85.9672041702086</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H27">
-        <v>85.9672041702086</v>
+        <v>27.880446</v>
       </c>
       <c r="I27">
-        <v>0.02860357943528039</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J27">
-        <v>0.02860357943528039</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.294352522144792</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N27">
-        <v>0.294352522144792</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O27">
-        <v>0.002545680356091186</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P27">
-        <v>0.002545680356091186</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q27">
-        <v>25.30466336923719</v>
+        <v>0.2641796171593333</v>
       </c>
       <c r="R27">
-        <v>25.30466336923719</v>
+        <v>2.377616554434</v>
       </c>
       <c r="S27">
-        <v>7.281557028228711E-05</v>
+        <v>4.700044708557109E-07</v>
       </c>
       <c r="T27">
-        <v>7.281557028228711E-05</v>
+        <v>4.767959793112748E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>85.9672041702086</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H28">
-        <v>85.9672041702086</v>
+        <v>27.880446</v>
       </c>
       <c r="I28">
-        <v>0.02860357943528039</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J28">
-        <v>0.02860357943528039</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>42.976043056057</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N28">
-        <v>42.976043056057</v>
+        <v>148.173461</v>
       </c>
       <c r="O28">
-        <v>0.3716743032917443</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P28">
-        <v>0.3716743032917443</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q28">
-        <v>3694.530267827728</v>
+        <v>459.0157975604006</v>
       </c>
       <c r="R28">
-        <v>3694.530267827728</v>
+        <v>4131.142178043605</v>
       </c>
       <c r="S28">
-        <v>0.0106312154582579</v>
+        <v>0.0008166393734936422</v>
       </c>
       <c r="T28">
-        <v>0.0106312154582579</v>
+        <v>0.0008284397148821628</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>85.9672041702086</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H29">
-        <v>85.9672041702086</v>
+        <v>27.880446</v>
       </c>
       <c r="I29">
-        <v>0.02860357943528039</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J29">
-        <v>0.02860357943528039</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>70.4144540386251</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N29">
-        <v>70.4144540386251</v>
+        <v>212.597199</v>
       </c>
       <c r="O29">
-        <v>0.6089728435988707</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P29">
-        <v>0.6089728435988707</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q29">
-        <v>6053.333746872253</v>
+        <v>658.589414052306</v>
       </c>
       <c r="R29">
-        <v>6053.333746872253</v>
+        <v>5927.304726470755</v>
       </c>
       <c r="S29">
-        <v>0.01741880310580888</v>
+        <v>0.001171702693762841</v>
       </c>
       <c r="T29">
-        <v>0.01741880310580888</v>
+        <v>0.001188633657712203</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>85.9672041702086</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H30">
-        <v>85.9672041702086</v>
+        <v>27.880446</v>
       </c>
       <c r="I30">
-        <v>0.02860357943528039</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J30">
-        <v>0.02860357943528039</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.570626390767208</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N30">
-        <v>0.570626390767208</v>
+        <v>1.841336</v>
       </c>
       <c r="O30">
-        <v>0.004935009162003186</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P30">
-        <v>0.004935009162003186</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q30">
-        <v>49.05515543999381</v>
+        <v>5.704140990650666</v>
       </c>
       <c r="R30">
-        <v>49.05515543999381</v>
+        <v>51.337268915856</v>
       </c>
       <c r="S30">
-        <v>0.0001411589265791946</v>
+        <v>1.014829151781296E-05</v>
       </c>
       <c r="T30">
-        <v>0.0001411589265791946</v>
+        <v>1.029493311789662E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>85.9672041702086</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H31">
-        <v>85.9672041702086</v>
+        <v>27.880446</v>
       </c>
       <c r="I31">
-        <v>0.02860357943528039</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J31">
-        <v>0.02860357943528039</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.3727573016189</v>
+        <v>1.3859455</v>
       </c>
       <c r="N31">
-        <v>1.3727573016189</v>
+        <v>2.771891</v>
       </c>
       <c r="O31">
-        <v>0.01187216359129066</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P31">
-        <v>0.01187216359129066</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q31">
-        <v>118.0121072244166</v>
+        <v>12.880259557231</v>
       </c>
       <c r="R31">
-        <v>118.0121072244166</v>
+        <v>77.281557343386</v>
       </c>
       <c r="S31">
-        <v>0.000339586374352126</v>
+        <v>2.291539234849214E-05</v>
       </c>
       <c r="T31">
-        <v>0.000339586374352126</v>
+        <v>1.549767802025245E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>126.775465</v>
+      </c>
+      <c r="H32">
+        <v>253.55093</v>
+      </c>
+      <c r="I32">
+        <v>0.02765263447399147</v>
+      </c>
+      <c r="J32">
+        <v>0.01861487331591611</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.317263</v>
+      </c>
+      <c r="N32">
+        <v>0.634526</v>
+      </c>
+      <c r="O32">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P32">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q32">
+        <v>40.221164352295</v>
+      </c>
+      <c r="R32">
+        <v>160.88465740918</v>
+      </c>
+      <c r="S32">
+        <v>7.155785624899081E-05</v>
+      </c>
+      <c r="T32">
+        <v>3.226304832144383E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>126.775465</v>
+      </c>
+      <c r="H33">
+        <v>253.55093</v>
+      </c>
+      <c r="I33">
+        <v>0.02765263447399147</v>
+      </c>
+      <c r="J33">
+        <v>0.01861487331591611</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P33">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q33">
+        <v>3.603761626578333</v>
+      </c>
+      <c r="R33">
+        <v>21.62256975947</v>
+      </c>
+      <c r="S33">
+        <v>6.411486603709106E-06</v>
+      </c>
+      <c r="T33">
+        <v>4.336087879463423E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>126.775465</v>
+      </c>
+      <c r="H34">
+        <v>253.55093</v>
+      </c>
+      <c r="I34">
+        <v>0.02765263447399147</v>
+      </c>
+      <c r="J34">
+        <v>0.01861487331591611</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N34">
+        <v>148.173461</v>
+      </c>
+      <c r="O34">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P34">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q34">
+        <v>6261.586472978121</v>
+      </c>
+      <c r="R34">
+        <v>37569.51883786872</v>
+      </c>
+      <c r="S34">
+        <v>0.01114004808014533</v>
+      </c>
+      <c r="T34">
+        <v>0.007534013629384094</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>126.775465</v>
+      </c>
+      <c r="H35">
+        <v>253.55093</v>
+      </c>
+      <c r="I35">
+        <v>0.02765263447399147</v>
+      </c>
+      <c r="J35">
+        <v>0.01861487331591611</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N35">
+        <v>212.597199</v>
+      </c>
+      <c r="O35">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P35">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q35">
+        <v>8984.036253640845</v>
+      </c>
+      <c r="R35">
+        <v>53904.21752184507</v>
+      </c>
+      <c r="S35">
+        <v>0.01598358439210801</v>
+      </c>
+      <c r="T35">
+        <v>0.01080969685141446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>126.775465</v>
+      </c>
+      <c r="H36">
+        <v>253.55093</v>
+      </c>
+      <c r="I36">
+        <v>0.02765263447399147</v>
+      </c>
+      <c r="J36">
+        <v>0.01861487331591611</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.841336</v>
+      </c>
+      <c r="O36">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P36">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q36">
+        <v>77.81207587374666</v>
+      </c>
+      <c r="R36">
+        <v>466.87245524248</v>
+      </c>
+      <c r="S36">
+        <v>0.0001384362046568008</v>
+      </c>
+      <c r="T36">
+        <v>9.362439418402728E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>126.775465</v>
+      </c>
+      <c r="H37">
+        <v>253.55093</v>
+      </c>
+      <c r="I37">
+        <v>0.02765263447399147</v>
+      </c>
+      <c r="J37">
+        <v>0.01861487331591611</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.3859455</v>
+      </c>
+      <c r="N37">
+        <v>2.771891</v>
+      </c>
+      <c r="O37">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P37">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q37">
+        <v>175.7038852271575</v>
+      </c>
+      <c r="R37">
+        <v>702.8155409086301</v>
+      </c>
+      <c r="S37">
+        <v>0.0003125964542286232</v>
+      </c>
+      <c r="T37">
+        <v>0.0001409393047326276</v>
       </c>
     </row>
   </sheetData>
